--- a/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Newcreateloan1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>newloan</t>
   </si>
@@ -175,9 +175,6 @@
     <t>plus 1</t>
   </si>
   <si>
-    <t>Chaithanya 123</t>
-  </si>
-  <si>
     <t>Loanpurpose</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>chaithanyatest</t>
+  </si>
+  <si>
+    <t>Firstrepaymenton</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -604,23 +607,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,114 +643,122 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="9">
         <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <v>42005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>25000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <v>42125</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>25000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8">
-        <v>42005</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -759,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,7 +784,6 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +895,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1302,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1341,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>2859</v>
+        <v>227</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
